--- a/lab1/Бинарная/Бинарная.xlsx
+++ b/lab1/Бинарная/Бинарная.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab1/Бинарная/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D885E4-C1E0-4442-8A39-1B8262DA1D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E9BFF-CB6A-EF46-B421-16ADD974B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
@@ -2823,7 +2823,7 @@
   <dimension ref="B10:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B10" sqref="B10:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
